--- a/pred_ohlcv/54/2019-10-12 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-12 FAB ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H281"/>
+  <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -411,21 +416,24 @@
         <v>5.49</v>
       </c>
       <c r="C2" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="D2" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="E2" t="n">
         <v>5.49</v>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>91.0746</v>
       </c>
       <c r="G2" t="n">
-        <v>5.45650000000001</v>
+        <v>5.454833333333343</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="C3" t="n">
         <v>5.5</v>
@@ -443,15 +451,18 @@
         <v>5.5</v>
       </c>
       <c r="E3" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="F3" t="n">
-        <v>47.9272</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>5.458833333333343</v>
+        <v>5.45650000000001</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>5.5</v>
       </c>
       <c r="F4" t="n">
-        <v>450</v>
+        <v>47.9272</v>
       </c>
       <c r="G4" t="n">
-        <v>5.461166666666676</v>
+        <v>5.458833333333343</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>5.5</v>
       </c>
       <c r="F5" t="n">
-        <v>62900.8991</v>
+        <v>450</v>
       </c>
       <c r="G5" t="n">
-        <v>5.46350000000001</v>
+        <v>5.461166666666676</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>5.5</v>
       </c>
       <c r="F6" t="n">
-        <v>746.5454545454545</v>
+        <v>62900.8991</v>
       </c>
       <c r="G6" t="n">
-        <v>5.465333333333343</v>
+        <v>5.46350000000001</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="n">
         <v>5.5</v>
@@ -547,15 +567,18 @@
         <v>5.5</v>
       </c>
       <c r="E7" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="F7" t="n">
-        <v>787.9335</v>
+        <v>746.5454545454545</v>
       </c>
       <c r="G7" t="n">
-        <v>5.46700000000001</v>
+        <v>5.465333333333343</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C8" t="n">
         <v>5.5</v>
@@ -573,15 +596,18 @@
         <v>5.5</v>
       </c>
       <c r="E8" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="F8" t="n">
-        <v>740</v>
+        <v>787.9335</v>
       </c>
       <c r="G8" t="n">
-        <v>5.468833333333344</v>
+        <v>5.46700000000001</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="D9" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="E9" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="F9" t="n">
-        <v>738.15</v>
+        <v>740</v>
       </c>
       <c r="G9" t="n">
-        <v>5.470166666666677</v>
+        <v>5.468833333333344</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C10" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="D10" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="E10" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="F10" t="n">
-        <v>41.0909</v>
+        <v>738.15</v>
       </c>
       <c r="G10" t="n">
-        <v>5.471833333333345</v>
+        <v>5.470166666666677</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>5.5</v>
       </c>
       <c r="F11" t="n">
-        <v>733.6363636363636</v>
+        <v>41.0909</v>
       </c>
       <c r="G11" t="n">
-        <v>5.472833333333345</v>
+        <v>5.471833333333345</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="n">
         <v>5.5</v>
@@ -677,15 +712,18 @@
         <v>5.5</v>
       </c>
       <c r="E12" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="F12" t="n">
-        <v>781.8386</v>
+        <v>733.6363636363636</v>
       </c>
       <c r="G12" t="n">
-        <v>5.474166666666678</v>
+        <v>5.472833333333345</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C13" t="n">
         <v>5.5</v>
@@ -703,15 +741,18 @@
         <v>5.5</v>
       </c>
       <c r="E13" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="F13" t="n">
-        <v>106935.0909</v>
+        <v>781.8386</v>
       </c>
       <c r="G13" t="n">
-        <v>5.475500000000011</v>
+        <v>5.474166666666678</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>5.5</v>
       </c>
       <c r="F14" t="n">
-        <v>166894.8181</v>
+        <v>106935.0909</v>
       </c>
       <c r="G14" t="n">
-        <v>5.47700000000001</v>
+        <v>5.475500000000011</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>5.5</v>
       </c>
       <c r="F15" t="n">
-        <v>201341.5454</v>
+        <v>166894.8181</v>
       </c>
       <c r="G15" t="n">
-        <v>5.478333333333343</v>
+        <v>5.47700000000001</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>5.5</v>
       </c>
       <c r="F16" t="n">
-        <v>32137.78663992383</v>
+        <v>201341.5454</v>
       </c>
       <c r="G16" t="n">
-        <v>5.479000000000011</v>
+        <v>5.478333333333343</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="D17" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="E17" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="F17" t="n">
-        <v>2785.3687</v>
+        <v>32137.78663992383</v>
       </c>
       <c r="G17" t="n">
-        <v>5.480000000000009</v>
+        <v>5.479000000000011</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="C18" t="n">
         <v>5.53</v>
@@ -833,15 +886,18 @@
         <v>5.53</v>
       </c>
       <c r="E18" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="F18" t="n">
-        <v>81052.89539999999</v>
+        <v>2785.3687</v>
       </c>
       <c r="G18" t="n">
-        <v>5.481000000000009</v>
+        <v>5.480000000000009</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="n">
         <v>5.53</v>
@@ -859,15 +915,18 @@
         <v>5.53</v>
       </c>
       <c r="E19" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="F19" t="n">
-        <v>36.8896</v>
+        <v>81052.89539999999</v>
       </c>
       <c r="G19" t="n">
-        <v>5.482000000000008</v>
+        <v>5.481000000000009</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>5.53</v>
       </c>
       <c r="F20" t="n">
-        <v>2000</v>
+        <v>36.8896</v>
       </c>
       <c r="G20" t="n">
-        <v>5.483000000000007</v>
+        <v>5.482000000000008</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="C21" t="n">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="D21" t="n">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="E21" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="F21" t="n">
-        <v>12817.5953</v>
+        <v>2000</v>
       </c>
       <c r="G21" t="n">
-        <v>5.484333333333341</v>
+        <v>5.483000000000007</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C22" t="n">
         <v>5.54</v>
       </c>
-      <c r="C22" t="n">
-        <v>5.57</v>
-      </c>
       <c r="D22" t="n">
-        <v>5.57</v>
+        <v>5.54</v>
       </c>
       <c r="E22" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="F22" t="n">
-        <v>39957.6396</v>
+        <v>12817.5953</v>
       </c>
       <c r="G22" t="n">
-        <v>5.486000000000007</v>
+        <v>5.484333333333341</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.57</v>
+        <v>5.54</v>
       </c>
       <c r="C23" t="n">
         <v>5.57</v>
@@ -963,15 +1031,18 @@
         <v>5.57</v>
       </c>
       <c r="E23" t="n">
-        <v>5.57</v>
+        <v>5.54</v>
       </c>
       <c r="F23" t="n">
-        <v>33.1418</v>
+        <v>39957.6396</v>
       </c>
       <c r="G23" t="n">
-        <v>5.487666666666673</v>
+        <v>5.486000000000007</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>5.57</v>
       </c>
       <c r="F24" t="n">
-        <v>31.4811</v>
+        <v>33.1418</v>
       </c>
       <c r="G24" t="n">
-        <v>5.489166666666673</v>
+        <v>5.487666666666673</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>5.57</v>
       </c>
       <c r="F25" t="n">
-        <v>27115.4398</v>
+        <v>31.4811</v>
       </c>
       <c r="G25" t="n">
-        <v>5.490666666666672</v>
+        <v>5.489166666666673</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,21 +1112,24 @@
         <v>5.57</v>
       </c>
       <c r="C26" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="D26" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="E26" t="n">
         <v>5.57</v>
       </c>
       <c r="F26" t="n">
-        <v>14888.2327</v>
+        <v>27115.4398</v>
       </c>
       <c r="G26" t="n">
-        <v>5.493000000000006</v>
+        <v>5.490666666666672</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="C27" t="n">
         <v>5.58</v>
@@ -1067,15 +1147,18 @@
         <v>5.58</v>
       </c>
       <c r="E27" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>14888.2327</v>
       </c>
       <c r="G27" t="n">
-        <v>5.494833333333338</v>
+        <v>5.493000000000006</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="C28" t="n">
         <v>5.58</v>
@@ -1093,15 +1176,18 @@
         <v>5.58</v>
       </c>
       <c r="E28" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="F28" t="n">
-        <v>39968.6396</v>
+        <v>500</v>
       </c>
       <c r="G28" t="n">
-        <v>5.496666666666671</v>
+        <v>5.494833333333338</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="C29" t="n">
         <v>5.58</v>
-      </c>
-      <c r="C29" t="n">
-        <v>5.57</v>
       </c>
       <c r="D29" t="n">
         <v>5.58</v>
       </c>
       <c r="E29" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="F29" t="n">
-        <v>135925.1283</v>
+        <v>39968.6396</v>
       </c>
       <c r="G29" t="n">
-        <v>5.498166666666671</v>
+        <v>5.496666666666671</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.55</v>
+        <v>5.58</v>
       </c>
       <c r="C30" t="n">
         <v>5.57</v>
       </c>
       <c r="D30" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="E30" t="n">
         <v>5.55</v>
       </c>
       <c r="F30" t="n">
-        <v>7433.980251346499</v>
+        <v>135925.1283</v>
       </c>
       <c r="G30" t="n">
-        <v>5.50016666666667</v>
+        <v>5.498166666666671</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,7 +1257,7 @@
         <v>5.55</v>
       </c>
       <c r="C31" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="D31" t="n">
         <v>5.57</v>
@@ -1174,12 +1266,15 @@
         <v>5.55</v>
       </c>
       <c r="F31" t="n">
-        <v>33700.5495</v>
+        <v>7433.980251346499</v>
       </c>
       <c r="G31" t="n">
-        <v>5.502000000000004</v>
+        <v>5.50016666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.53</v>
+        <v>5.55</v>
       </c>
       <c r="C32" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="D32" t="n">
-        <v>5.54</v>
+        <v>5.57</v>
       </c>
       <c r="E32" t="n">
-        <v>5.5</v>
+        <v>5.55</v>
       </c>
       <c r="F32" t="n">
-        <v>50212.1481</v>
+        <v>33700.5495</v>
       </c>
       <c r="G32" t="n">
-        <v>5.503666666666671</v>
+        <v>5.502000000000004</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.51</v>
+        <v>5.53</v>
       </c>
       <c r="C33" t="n">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="D33" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="E33" t="n">
         <v>5.5</v>
       </c>
       <c r="F33" t="n">
-        <v>243774.1164</v>
+        <v>50212.1481</v>
       </c>
       <c r="G33" t="n">
-        <v>5.504166666666671</v>
+        <v>5.503666666666671</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="C34" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="D34" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="E34" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="F34" t="n">
-        <v>33</v>
+        <v>243774.1164</v>
       </c>
       <c r="G34" t="n">
-        <v>5.505333333333337</v>
+        <v>5.504166666666671</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,7 +1370,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="C35" t="n">
         <v>5.54</v>
@@ -1275,15 +1379,18 @@
         <v>5.54</v>
       </c>
       <c r="E35" t="n">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="F35" t="n">
-        <v>24033.5495</v>
+        <v>33</v>
       </c>
       <c r="G35" t="n">
-        <v>5.506500000000004</v>
+        <v>5.505333333333337</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="C36" t="n">
         <v>5.54</v>
@@ -1301,15 +1408,18 @@
         <v>5.54</v>
       </c>
       <c r="E36" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="F36" t="n">
-        <v>12896.7249</v>
+        <v>24033.5495</v>
       </c>
       <c r="G36" t="n">
-        <v>5.507833333333338</v>
+        <v>5.506500000000004</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,7 +1428,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="C37" t="n">
         <v>5.54</v>
@@ -1327,15 +1437,18 @@
         <v>5.54</v>
       </c>
       <c r="E37" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="F37" t="n">
-        <v>177.2563</v>
+        <v>12896.7249</v>
       </c>
       <c r="G37" t="n">
-        <v>5.509000000000004</v>
+        <v>5.507833333333338</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,7 +1457,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
       <c r="C38" t="n">
         <v>5.54</v>
@@ -1353,15 +1466,18 @@
         <v>5.54</v>
       </c>
       <c r="E38" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="F38" t="n">
-        <v>9366.7168</v>
+        <v>177.2563</v>
       </c>
       <c r="G38" t="n">
-        <v>5.510166666666671</v>
+        <v>5.509000000000004</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,7 +1486,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.54</v>
+        <v>5.52</v>
       </c>
       <c r="C39" t="n">
         <v>5.54</v>
@@ -1379,15 +1495,18 @@
         <v>5.54</v>
       </c>
       <c r="E39" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="F39" t="n">
-        <v>87.9061</v>
+        <v>9366.7168</v>
       </c>
       <c r="G39" t="n">
-        <v>5.511333333333337</v>
+        <v>5.510166666666671</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>5.54</v>
       </c>
       <c r="C40" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="D40" t="n">
         <v>5.54</v>
       </c>
       <c r="E40" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="F40" t="n">
-        <v>75346.99275884476</v>
+        <v>87.9061</v>
       </c>
       <c r="G40" t="n">
-        <v>5.512000000000003</v>
+        <v>5.511333333333337</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
       <c r="C41" t="n">
         <v>5.51</v>
       </c>
       <c r="D41" t="n">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
       <c r="E41" t="n">
         <v>5.51</v>
       </c>
       <c r="F41" t="n">
-        <v>13280.0066</v>
+        <v>75346.99275884476</v>
       </c>
       <c r="G41" t="n">
-        <v>5.512833333333337</v>
+        <v>5.512000000000003</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>5.52</v>
       </c>
       <c r="C42" t="n">
-        <v>5.52</v>
+        <v>5.51</v>
       </c>
       <c r="D42" t="n">
         <v>5.52</v>
       </c>
       <c r="E42" t="n">
-        <v>5.52</v>
+        <v>5.51</v>
       </c>
       <c r="F42" t="n">
-        <v>126804.1666</v>
+        <v>13280.0066</v>
       </c>
       <c r="G42" t="n">
-        <v>5.513666666666669</v>
+        <v>5.512833333333337</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="C43" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="D43" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="E43" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="F43" t="n">
-        <v>47438.3301</v>
+        <v>126804.1666</v>
       </c>
       <c r="G43" t="n">
-        <v>5.514333333333336</v>
+        <v>5.513666666666669</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="C44" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="D44" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="E44" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="F44" t="n">
-        <v>10.18</v>
+        <v>47438.3301</v>
       </c>
       <c r="G44" t="n">
-        <v>5.515500000000002</v>
+        <v>5.514333333333336</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>5.54</v>
       </c>
       <c r="C45" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="D45" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="E45" t="n">
         <v>5.54</v>
       </c>
       <c r="F45" t="n">
-        <v>68599.53164115523</v>
+        <v>10.18</v>
       </c>
       <c r="G45" t="n">
-        <v>5.516833333333335</v>
+        <v>5.515500000000002</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="C46" t="n">
         <v>5.55</v>
       </c>
-      <c r="C46" t="n">
-        <v>5.56</v>
-      </c>
       <c r="D46" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="E46" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="F46" t="n">
-        <v>184717.4368</v>
+        <v>68599.53164115523</v>
       </c>
       <c r="G46" t="n">
-        <v>5.518333333333334</v>
+        <v>5.516833333333335</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,7 +1718,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="C47" t="n">
         <v>5.56</v>
@@ -1587,15 +1727,18 @@
         <v>5.56</v>
       </c>
       <c r="E47" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>184717.4368</v>
       </c>
       <c r="G47" t="n">
-        <v>5.519833333333334</v>
+        <v>5.518333333333334</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>5.56</v>
       </c>
       <c r="C48" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="D48" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="E48" t="n">
         <v>5.56</v>
       </c>
       <c r="F48" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="n">
-        <v>5.521500000000001</v>
+        <v>5.519833333333334</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,21 +1779,24 @@
         <v>5.56</v>
       </c>
       <c r="C49" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="D49" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="E49" t="n">
         <v>5.56</v>
       </c>
       <c r="F49" t="n">
-        <v>52543.3</v>
+        <v>7500</v>
       </c>
       <c r="G49" t="n">
-        <v>5.523</v>
+        <v>5.521500000000001</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="C50" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="D50" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="E50" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="F50" t="n">
-        <v>98633.9317</v>
+        <v>52543.3</v>
       </c>
       <c r="G50" t="n">
-        <v>5.5245</v>
+        <v>5.523</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>5.57</v>
       </c>
       <c r="F51" t="n">
-        <v>14907.8994</v>
+        <v>98633.9317</v>
       </c>
       <c r="G51" t="n">
-        <v>5.525999999999999</v>
+        <v>5.5245</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="C52" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="D52" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="E52" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="F52" t="n">
-        <v>6194.11</v>
+        <v>14907.8994</v>
       </c>
       <c r="G52" t="n">
-        <v>5.527166666666665</v>
+        <v>5.525999999999999</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="C53" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="D53" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="E53" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>6194.11</v>
       </c>
       <c r="G53" t="n">
-        <v>5.528166666666666</v>
+        <v>5.527166666666665</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="C54" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="D54" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="E54" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="F54" t="n">
-        <v>2510</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="n">
-        <v>5.528999999999999</v>
+        <v>5.528166666666666</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="C55" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="D55" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="E55" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="F55" t="n">
-        <v>28.5135</v>
+        <v>2510</v>
       </c>
       <c r="G55" t="n">
-        <v>5.529999999999999</v>
+        <v>5.528999999999999</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>5.55</v>
       </c>
       <c r="F56" t="n">
-        <v>179610.6306</v>
+        <v>28.5135</v>
       </c>
       <c r="G56" t="n">
-        <v>5.531</v>
+        <v>5.529999999999999</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>5.55</v>
       </c>
       <c r="F57" t="n">
-        <v>12780.5405</v>
+        <v>179610.6306</v>
       </c>
       <c r="G57" t="n">
-        <v>5.531999999999999</v>
+        <v>5.531</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="C58" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="D58" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="E58" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="F58" t="n">
-        <v>72.6211</v>
+        <v>12780.5405</v>
       </c>
       <c r="G58" t="n">
-        <v>5.533333333333332</v>
+        <v>5.531999999999999</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="C59" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="D59" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="E59" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="F59" t="n">
-        <v>4769.0647</v>
+        <v>72.6211</v>
       </c>
       <c r="G59" t="n">
-        <v>5.534499999999999</v>
+        <v>5.533333333333332</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>5.56</v>
       </c>
       <c r="F60" t="n">
-        <v>33.9118</v>
+        <v>4769.0647</v>
       </c>
       <c r="G60" t="n">
-        <v>5.535666666666666</v>
+        <v>5.534499999999999</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="C61" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="D61" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="E61" t="n">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="F61" t="n">
-        <v>32.2702</v>
+        <v>33.9118</v>
       </c>
       <c r="G61" t="n">
-        <v>5.536666666666665</v>
+        <v>5.535666666666666</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="C62" t="n">
-        <v>5.5</v>
+        <v>5.55</v>
       </c>
       <c r="D62" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="E62" t="n">
-        <v>5.5</v>
+        <v>5.55</v>
       </c>
       <c r="F62" t="n">
-        <v>12780.5404</v>
+        <v>32.2702</v>
       </c>
       <c r="G62" t="n">
         <v>5.536666666666665</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,21 +2185,24 @@
         <v>5.54</v>
       </c>
       <c r="C63" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="D63" t="n">
         <v>5.54</v>
       </c>
       <c r="E63" t="n">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="F63" t="n">
-        <v>8148.528782310469</v>
+        <v>12780.5404</v>
       </c>
       <c r="G63" t="n">
-        <v>5.537333333333333</v>
+        <v>5.536666666666665</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>5.54</v>
       </c>
       <c r="F64" t="n">
-        <v>23</v>
+        <v>8148.528782310469</v>
       </c>
       <c r="G64" t="n">
-        <v>5.537999999999999</v>
+        <v>5.537333333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>5.54</v>
       </c>
       <c r="F65" t="n">
-        <v>241457.9775176895</v>
+        <v>23</v>
       </c>
       <c r="G65" t="n">
-        <v>5.538666666666667</v>
+        <v>5.537999999999999</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="C66" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="D66" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="E66" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="F66" t="n">
-        <v>24.4504</v>
+        <v>241457.9775176895</v>
       </c>
       <c r="G66" t="n">
-        <v>5.5395</v>
+        <v>5.538666666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>5.55</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>24.4504</v>
       </c>
       <c r="G67" t="n">
-        <v>5.540333333333334</v>
+        <v>5.5395</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>5.55</v>
       </c>
       <c r="F68" t="n">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>5.541166666666667</v>
+        <v>5.540333333333334</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,21 +2359,24 @@
         <v>5.55</v>
       </c>
       <c r="C69" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="D69" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="E69" t="n">
         <v>5.55</v>
       </c>
       <c r="F69" t="n">
-        <v>338074.1062</v>
+        <v>330</v>
       </c>
       <c r="G69" t="n">
-        <v>5.542666666666666</v>
+        <v>5.541166666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,7 +2385,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="C70" t="n">
         <v>5.57</v>
@@ -2185,15 +2394,18 @@
         <v>5.57</v>
       </c>
       <c r="E70" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="F70" t="n">
-        <v>1022</v>
+        <v>338074.1062</v>
       </c>
       <c r="G70" t="n">
-        <v>5.543833333333334</v>
+        <v>5.542666666666666</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>5.57</v>
       </c>
       <c r="F71" t="n">
-        <v>131069.834</v>
+        <v>1022</v>
       </c>
       <c r="G71" t="n">
-        <v>5.545</v>
+        <v>5.543833333333334</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>5.57</v>
       </c>
       <c r="F72" t="n">
-        <v>226600</v>
+        <v>131069.834</v>
       </c>
       <c r="G72" t="n">
-        <v>5.546166666666666</v>
+        <v>5.545</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>5.57</v>
       </c>
       <c r="C73" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="D73" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="E73" t="n">
         <v>5.57</v>
       </c>
       <c r="F73" t="n">
-        <v>600011</v>
+        <v>226600</v>
       </c>
       <c r="G73" t="n">
-        <v>5.547499999999999</v>
+        <v>5.546166666666666</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2501,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="C74" t="n">
         <v>5.58</v>
@@ -2289,15 +2510,18 @@
         <v>5.58</v>
       </c>
       <c r="E74" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="F74" t="n">
-        <v>2500</v>
+        <v>600011</v>
       </c>
       <c r="G74" t="n">
-        <v>5.548833333333333</v>
+        <v>5.547499999999999</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2309,21 +2533,24 @@
         <v>5.58</v>
       </c>
       <c r="C75" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="D75" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="E75" t="n">
         <v>5.58</v>
       </c>
       <c r="F75" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G75" t="n">
-        <v>5.5505</v>
+        <v>5.548833333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="C76" t="n">
         <v>5.6</v>
@@ -2341,15 +2568,18 @@
         <v>5.6</v>
       </c>
       <c r="E76" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="F76" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G76" t="n">
-        <v>5.552166666666666</v>
+        <v>5.5505</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>5.6</v>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G77" t="n">
-        <v>5.553333333333334</v>
+        <v>5.552166666666666</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>5.6</v>
       </c>
       <c r="F78" t="n">
-        <v>133.9285</v>
+        <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>5.554500000000002</v>
+        <v>5.553333333333334</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>5.6</v>
       </c>
       <c r="C79" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="D79" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="E79" t="n">
         <v>5.6</v>
       </c>
       <c r="F79" t="n">
-        <v>389564.2576</v>
+        <v>133.9285</v>
       </c>
       <c r="G79" t="n">
-        <v>5.556333333333336</v>
+        <v>5.554500000000002</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C80" t="n">
         <v>5.64</v>
       </c>
-      <c r="C80" t="n">
-        <v>5.72</v>
-      </c>
       <c r="D80" t="n">
-        <v>5.72</v>
+        <v>5.64</v>
       </c>
       <c r="E80" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="F80" t="n">
-        <v>1798479.34</v>
+        <v>389564.2576</v>
       </c>
       <c r="G80" t="n">
-        <v>5.559500000000003</v>
+        <v>5.556333333333336</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="C81" t="n">
         <v>5.72</v>
       </c>
-      <c r="C81" t="n">
-        <v>5.85</v>
-      </c>
       <c r="D81" t="n">
-        <v>5.85</v>
+        <v>5.72</v>
       </c>
       <c r="E81" t="n">
-        <v>5.72</v>
+        <v>5.64</v>
       </c>
       <c r="F81" t="n">
-        <v>503472.3986</v>
+        <v>1798479.34</v>
       </c>
       <c r="G81" t="n">
-        <v>5.564666666666669</v>
+        <v>5.559500000000003</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.83</v>
+        <v>5.72</v>
       </c>
       <c r="C82" t="n">
-        <v>5.78</v>
+        <v>5.85</v>
       </c>
       <c r="D82" t="n">
         <v>5.85</v>
       </c>
       <c r="E82" t="n">
-        <v>5.78</v>
+        <v>5.72</v>
       </c>
       <c r="F82" t="n">
-        <v>294627.7715</v>
+        <v>503472.3986</v>
       </c>
       <c r="G82" t="n">
-        <v>5.568166666666669</v>
+        <v>5.564666666666669</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,25 +2762,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="C83" t="n">
-        <v>5.76</v>
+        <v>5.78</v>
       </c>
       <c r="D83" t="n">
-        <v>5.82</v>
+        <v>5.85</v>
       </c>
       <c r="E83" t="n">
-        <v>5.76</v>
+        <v>5.78</v>
       </c>
       <c r="F83" t="n">
-        <v>197605.775</v>
+        <v>294627.7715</v>
       </c>
       <c r="G83" t="n">
-        <v>5.571333333333336</v>
+        <v>5.568166666666669</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2540,25 +2791,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
       <c r="C84" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="D84" t="n">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
       <c r="E84" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="F84" t="n">
-        <v>8145.726</v>
+        <v>197605.775</v>
       </c>
       <c r="G84" t="n">
-        <v>5.574666666666669</v>
+        <v>5.571333333333336</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2578,12 +2832,15 @@
         <v>5.77</v>
       </c>
       <c r="F85" t="n">
-        <v>6854.274</v>
+        <v>8145.726</v>
       </c>
       <c r="G85" t="n">
-        <v>5.578000000000002</v>
+        <v>5.574666666666669</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.81</v>
+        <v>5.77</v>
       </c>
       <c r="C86" t="n">
-        <v>5.82</v>
+        <v>5.77</v>
       </c>
       <c r="D86" t="n">
-        <v>5.82</v>
+        <v>5.77</v>
       </c>
       <c r="E86" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="F86" t="n">
-        <v>78605.72629999999</v>
+        <v>6854.274</v>
       </c>
       <c r="G86" t="n">
-        <v>5.582000000000003</v>
+        <v>5.578000000000002</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C87" t="n">
         <v>5.82</v>
       </c>
-      <c r="C87" t="n">
-        <v>5.84</v>
-      </c>
       <c r="D87" t="n">
-        <v>5.84</v>
+        <v>5.82</v>
       </c>
       <c r="E87" t="n">
-        <v>5.82</v>
+        <v>5.78</v>
       </c>
       <c r="F87" t="n">
-        <v>95318.78170000001</v>
+        <v>78605.72629999999</v>
       </c>
       <c r="G87" t="n">
-        <v>5.586333333333335</v>
+        <v>5.582000000000003</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C88" t="n">
         <v>5.84</v>
       </c>
-      <c r="C88" t="n">
-        <v>5.86</v>
-      </c>
       <c r="D88" t="n">
-        <v>5.86</v>
+        <v>5.84</v>
       </c>
       <c r="E88" t="n">
-        <v>5.84</v>
+        <v>5.82</v>
       </c>
       <c r="F88" t="n">
-        <v>323684.5919</v>
+        <v>95318.78170000001</v>
       </c>
       <c r="G88" t="n">
-        <v>5.591000000000003</v>
+        <v>5.586333333333335</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C89" t="n">
         <v>5.86</v>
       </c>
-      <c r="C89" t="n">
-        <v>5.87</v>
-      </c>
       <c r="D89" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="E89" t="n">
-        <v>5.86</v>
+        <v>5.84</v>
       </c>
       <c r="F89" t="n">
-        <v>354711.0434</v>
+        <v>323684.5919</v>
       </c>
       <c r="G89" t="n">
-        <v>5.596000000000003</v>
+        <v>5.591000000000003</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,10 +2965,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="C90" t="n">
         <v>5.87</v>
-      </c>
-      <c r="C90" t="n">
-        <v>5.86</v>
       </c>
       <c r="D90" t="n">
         <v>5.87</v>
@@ -2708,12 +2977,15 @@
         <v>5.86</v>
       </c>
       <c r="F90" t="n">
-        <v>266757.5858</v>
+        <v>354711.0434</v>
       </c>
       <c r="G90" t="n">
-        <v>5.600833333333337</v>
+        <v>5.596000000000003</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="C91" t="n">
         <v>5.86</v>
       </c>
       <c r="D91" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E91" t="n">
         <v>5.86</v>
       </c>
-      <c r="E91" t="n">
-        <v>5.82</v>
-      </c>
       <c r="F91" t="n">
-        <v>33932</v>
+        <v>266757.5858</v>
       </c>
       <c r="G91" t="n">
-        <v>5.606000000000003</v>
+        <v>5.600833333333337</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C92" t="n">
         <v>5.86</v>
       </c>
-      <c r="C92" t="n">
-        <v>5.97</v>
-      </c>
       <c r="D92" t="n">
-        <v>5.97</v>
+        <v>5.86</v>
       </c>
       <c r="E92" t="n">
-        <v>5.86</v>
+        <v>5.82</v>
       </c>
       <c r="F92" t="n">
-        <v>2793103.6194</v>
+        <v>33932</v>
       </c>
       <c r="G92" t="n">
-        <v>5.61316666666667</v>
+        <v>5.606000000000003</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.98</v>
+        <v>5.86</v>
       </c>
       <c r="C93" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="D93" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="E93" t="n">
-        <v>5.98</v>
+        <v>5.86</v>
       </c>
       <c r="F93" t="n">
-        <v>1172506.528</v>
+        <v>2793103.6194</v>
       </c>
       <c r="G93" t="n">
-        <v>5.62116666666667</v>
+        <v>5.61316666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2803,21 +3084,24 @@
         <v>5.98</v>
       </c>
       <c r="C94" t="n">
-        <v>5.95</v>
+        <v>5.98</v>
       </c>
       <c r="D94" t="n">
         <v>5.98</v>
       </c>
       <c r="E94" t="n">
-        <v>5.95</v>
+        <v>5.98</v>
       </c>
       <c r="F94" t="n">
-        <v>1210358.8697</v>
+        <v>1172506.528</v>
       </c>
       <c r="G94" t="n">
-        <v>5.628000000000003</v>
+        <v>5.62116666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,10 +3110,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C95" t="n">
         <v>5.95</v>
-      </c>
-      <c r="C95" t="n">
-        <v>5.97</v>
       </c>
       <c r="D95" t="n">
         <v>5.98</v>
@@ -2838,12 +3122,15 @@
         <v>5.95</v>
       </c>
       <c r="F95" t="n">
-        <v>364817.2759</v>
+        <v>1210358.8697</v>
       </c>
       <c r="G95" t="n">
-        <v>5.635166666666669</v>
+        <v>5.628000000000003</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C96" t="n">
         <v>5.97</v>
       </c>
-      <c r="C96" t="n">
-        <v>5.9</v>
-      </c>
       <c r="D96" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="E96" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="F96" t="n">
-        <v>1019576.2094</v>
+        <v>364817.2759</v>
       </c>
       <c r="G96" t="n">
-        <v>5.641166666666669</v>
+        <v>5.635166666666669</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.89</v>
+        <v>5.97</v>
       </c>
       <c r="C97" t="n">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="D97" t="n">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="E97" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="F97" t="n">
-        <v>57056.9688</v>
+        <v>1019576.2094</v>
       </c>
       <c r="G97" t="n">
-        <v>5.648000000000001</v>
+        <v>5.641166666666669</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.95</v>
+        <v>5.89</v>
       </c>
       <c r="C98" t="n">
         <v>5.95</v>
@@ -2913,15 +3206,18 @@
         <v>5.95</v>
       </c>
       <c r="E98" t="n">
-        <v>5.95</v>
+        <v>5.89</v>
       </c>
       <c r="F98" t="n">
-        <v>17515.1344</v>
+        <v>57056.9688</v>
       </c>
       <c r="G98" t="n">
-        <v>5.654833333333334</v>
+        <v>5.648000000000001</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="C99" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="D99" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="E99" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="F99" t="n">
-        <v>21917</v>
+        <v>17515.1344</v>
       </c>
       <c r="G99" t="n">
-        <v>5.661333333333334</v>
+        <v>5.654833333333334</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="C100" t="n">
         <v>5.93</v>
       </c>
       <c r="D100" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="E100" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="F100" t="n">
-        <v>564614.9271</v>
+        <v>21917</v>
       </c>
       <c r="G100" t="n">
-        <v>5.668333333333335</v>
+        <v>5.661333333333334</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,10 +3284,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="C101" t="n">
         <v>5.93</v>
-      </c>
-      <c r="C101" t="n">
-        <v>5.95</v>
       </c>
       <c r="D101" t="n">
         <v>5.95</v>
@@ -2994,12 +3296,15 @@
         <v>5.92</v>
       </c>
       <c r="F101" t="n">
-        <v>13500</v>
+        <v>564614.9271</v>
       </c>
       <c r="G101" t="n">
-        <v>5.675666666666668</v>
+        <v>5.668333333333335</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E102" t="n">
         <v>5.92</v>
       </c>
-      <c r="C102" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="D102" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="E102" t="n">
-        <v>5.83</v>
-      </c>
       <c r="F102" t="n">
-        <v>216623.2153</v>
+        <v>13500</v>
       </c>
       <c r="G102" t="n">
-        <v>5.680833333333335</v>
+        <v>5.675666666666668</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.88</v>
+        <v>5.92</v>
       </c>
       <c r="C103" t="n">
-        <v>5.8</v>
+        <v>5.83</v>
       </c>
       <c r="D103" t="n">
-        <v>5.88</v>
+        <v>5.92</v>
       </c>
       <c r="E103" t="n">
-        <v>5.76</v>
+        <v>5.83</v>
       </c>
       <c r="F103" t="n">
-        <v>223445.4288</v>
+        <v>216623.2153</v>
       </c>
       <c r="G103" t="n">
-        <v>5.685666666666668</v>
+        <v>5.680833333333335</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="C104" t="n">
-        <v>5.85</v>
+        <v>5.8</v>
       </c>
       <c r="D104" t="n">
-        <v>5.85</v>
+        <v>5.88</v>
       </c>
       <c r="E104" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="F104" t="n">
-        <v>21394.6865</v>
+        <v>223445.4288</v>
       </c>
       <c r="G104" t="n">
-        <v>5.690833333333335</v>
+        <v>5.685666666666668</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.84</v>
+        <v>5.79</v>
       </c>
       <c r="C105" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="D105" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="E105" t="n">
-        <v>5.84</v>
+        <v>5.79</v>
       </c>
       <c r="F105" t="n">
-        <v>111.6438</v>
+        <v>21394.6865</v>
       </c>
       <c r="G105" t="n">
-        <v>5.695666666666668</v>
+        <v>5.690833333333335</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>5.84</v>
       </c>
       <c r="C106" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="D106" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="E106" t="n">
         <v>5.84</v>
       </c>
       <c r="F106" t="n">
-        <v>151090.2036</v>
+        <v>111.6438</v>
       </c>
       <c r="G106" t="n">
-        <v>5.700500000000002</v>
+        <v>5.695666666666668</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="C107" t="n">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="D107" t="n">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="E107" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="F107" t="n">
-        <v>42381.1043</v>
+        <v>151090.2036</v>
       </c>
       <c r="G107" t="n">
-        <v>5.706166666666667</v>
+        <v>5.700500000000002</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C108" t="n">
-        <v>5.77</v>
+        <v>5.9</v>
       </c>
       <c r="D108" t="n">
-        <v>5.87</v>
+        <v>5.9</v>
       </c>
       <c r="E108" t="n">
-        <v>5.77</v>
+        <v>5.85</v>
       </c>
       <c r="F108" t="n">
-        <v>438920.316</v>
+        <v>42381.1043</v>
       </c>
       <c r="G108" t="n">
-        <v>5.709500000000001</v>
+        <v>5.706166666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.76</v>
+        <v>5.87</v>
       </c>
       <c r="C109" t="n">
-        <v>5.7</v>
+        <v>5.77</v>
       </c>
       <c r="D109" t="n">
-        <v>5.76</v>
+        <v>5.87</v>
       </c>
       <c r="E109" t="n">
-        <v>5.7</v>
+        <v>5.77</v>
       </c>
       <c r="F109" t="n">
-        <v>1014385.9147</v>
+        <v>438920.316</v>
       </c>
       <c r="G109" t="n">
-        <v>5.711833333333334</v>
+        <v>5.709500000000001</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.71</v>
+        <v>5.76</v>
       </c>
       <c r="C110" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D110" t="n">
-        <v>5.71</v>
+        <v>5.76</v>
       </c>
       <c r="E110" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F110" t="n">
-        <v>407996.3227</v>
+        <v>1014385.9147</v>
       </c>
       <c r="G110" t="n">
-        <v>5.713833333333334</v>
+        <v>5.711833333333334</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="C111" t="n">
-        <v>5.72</v>
+        <v>5.69</v>
       </c>
       <c r="D111" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="E111" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="F111" t="n">
-        <v>529484.4789</v>
+        <v>407996.3227</v>
       </c>
       <c r="G111" t="n">
-        <v>5.716333333333335</v>
+        <v>5.713833333333334</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="D112" t="n">
         <v>5.73</v>
       </c>
-      <c r="C112" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="D112" t="n">
-        <v>5.75</v>
-      </c>
       <c r="E112" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="F112" t="n">
-        <v>227048.76</v>
+        <v>529484.4789</v>
       </c>
       <c r="G112" t="n">
-        <v>5.719500000000001</v>
+        <v>5.716333333333335</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="C113" t="n">
         <v>5.75</v>
       </c>
-      <c r="C113" t="n">
-        <v>5.78</v>
-      </c>
       <c r="D113" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="E113" t="n">
-        <v>5.75</v>
+        <v>5.71</v>
       </c>
       <c r="F113" t="n">
-        <v>290509.5299</v>
+        <v>227048.76</v>
       </c>
       <c r="G113" t="n">
-        <v>5.723333333333334</v>
+        <v>5.719500000000001</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,7 +3661,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="C114" t="n">
         <v>5.78</v>
@@ -3329,15 +3670,18 @@
         <v>5.78</v>
       </c>
       <c r="E114" t="n">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="F114" t="n">
-        <v>52101.8719</v>
+        <v>290509.5299</v>
       </c>
       <c r="G114" t="n">
-        <v>5.727333333333333</v>
+        <v>5.723333333333334</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3349,21 +3693,24 @@
         <v>5.78</v>
       </c>
       <c r="C115" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="D115" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="E115" t="n">
-        <v>5.76</v>
+        <v>5.78</v>
       </c>
       <c r="F115" t="n">
-        <v>263157.7493</v>
+        <v>52101.8719</v>
       </c>
       <c r="G115" t="n">
-        <v>5.7315</v>
+        <v>5.727333333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="C116" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="D116" t="n">
         <v>5.8</v>
       </c>
       <c r="E116" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="F116" t="n">
-        <v>398434.6801</v>
+        <v>263157.7493</v>
       </c>
       <c r="G116" t="n">
-        <v>5.735166666666666</v>
+        <v>5.7315</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="C117" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="D117" t="n">
         <v>5.8</v>
       </c>
       <c r="E117" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="F117" t="n">
-        <v>53160.285</v>
+        <v>398434.6801</v>
       </c>
       <c r="G117" t="n">
-        <v>5.738666666666665</v>
+        <v>5.735166666666666</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="C118" t="n">
-        <v>5.8</v>
+        <v>5.76</v>
       </c>
       <c r="D118" t="n">
         <v>5.8</v>
       </c>
       <c r="E118" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="F118" t="n">
-        <v>60459.7372</v>
+        <v>53160.285</v>
       </c>
       <c r="G118" t="n">
-        <v>5.742499999999999</v>
+        <v>5.738666666666665</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,7 +3806,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="C119" t="n">
         <v>5.8</v>
@@ -3459,15 +3815,18 @@
         <v>5.8</v>
       </c>
       <c r="E119" t="n">
-        <v>5.8</v>
+        <v>5.77</v>
       </c>
       <c r="F119" t="n">
-        <v>12575.5862</v>
+        <v>60459.7372</v>
       </c>
       <c r="G119" t="n">
-        <v>5.746499999999999</v>
+        <v>5.742499999999999</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>5.8</v>
       </c>
       <c r="F120" t="n">
-        <v>21434.3926</v>
+        <v>12575.5862</v>
       </c>
       <c r="G120" t="n">
-        <v>5.7505</v>
+        <v>5.746499999999999</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,21 +3867,24 @@
         <v>5.8</v>
       </c>
       <c r="C121" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="D121" t="n">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
       <c r="E121" t="n">
         <v>5.8</v>
       </c>
       <c r="F121" t="n">
-        <v>51056.9509</v>
+        <v>21434.3926</v>
       </c>
       <c r="G121" t="n">
-        <v>5.754833333333333</v>
+        <v>5.7505</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
       <c r="C122" t="n">
-        <v>5.84</v>
+        <v>5.81</v>
       </c>
       <c r="D122" t="n">
         <v>5.84</v>
       </c>
       <c r="E122" t="n">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
       <c r="F122" t="n">
-        <v>11</v>
+        <v>51056.9509</v>
       </c>
       <c r="G122" t="n">
-        <v>5.760499999999999</v>
+        <v>5.754833333333333</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C123" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D123" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E123" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F123" t="n">
-        <v>50103.6775</v>
+        <v>11</v>
       </c>
       <c r="G123" t="n">
-        <v>5.765333333333332</v>
+        <v>5.760499999999999</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C124" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="D124" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="E124" t="n">
         <v>5.83</v>
       </c>
       <c r="F124" t="n">
-        <v>640089.8016</v>
+        <v>50103.6775</v>
       </c>
       <c r="G124" t="n">
-        <v>5.770499999999998</v>
+        <v>5.765333333333332</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,10 +3980,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C125" t="n">
         <v>5.85</v>
-      </c>
-      <c r="C125" t="n">
-        <v>5.84</v>
       </c>
       <c r="D125" t="n">
         <v>5.85</v>
@@ -3618,12 +3992,15 @@
         <v>5.83</v>
       </c>
       <c r="F125" t="n">
-        <v>250941.4023</v>
+        <v>640089.8016</v>
       </c>
       <c r="G125" t="n">
-        <v>5.775499999999997</v>
+        <v>5.770499999999998</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="C126" t="n">
         <v>5.84</v>
       </c>
       <c r="D126" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="E126" t="n">
         <v>5.83</v>
       </c>
       <c r="F126" t="n">
-        <v>129335.7675</v>
+        <v>250941.4023</v>
       </c>
       <c r="G126" t="n">
-        <v>5.78033333333333</v>
+        <v>5.775499999999997</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="C127" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="D127" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="E127" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="F127" t="n">
-        <v>69.6734</v>
+        <v>129335.7675</v>
       </c>
       <c r="G127" t="n">
-        <v>5.78583333333333</v>
+        <v>5.78033333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>5.88</v>
       </c>
       <c r="C128" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="D128" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="E128" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F128" t="n">
-        <v>241599.9727</v>
+        <v>69.6734</v>
       </c>
       <c r="G128" t="n">
-        <v>5.791166666666664</v>
+        <v>5.78583333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C129" t="n">
         <v>5.87</v>
       </c>
       <c r="D129" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E129" t="n">
         <v>5.87</v>
       </c>
       <c r="F129" t="n">
-        <v>20121.5728</v>
+        <v>241599.9727</v>
       </c>
       <c r="G129" t="n">
-        <v>5.796166666666664</v>
+        <v>5.791166666666664</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="C130" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="D130" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E130" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="F130" t="n">
-        <v>7077.1221</v>
+        <v>20121.5728</v>
       </c>
       <c r="G130" t="n">
-        <v>5.801499999999996</v>
+        <v>5.796166666666664</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>5.89</v>
       </c>
       <c r="F131" t="n">
-        <v>11964.4067</v>
+        <v>7077.1221</v>
       </c>
       <c r="G131" t="n">
-        <v>5.80683333333333</v>
+        <v>5.801499999999996</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="C132" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="D132" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="E132" t="n">
-        <v>5.85</v>
+        <v>5.89</v>
       </c>
       <c r="F132" t="n">
-        <v>21299</v>
+        <v>11964.4067</v>
       </c>
       <c r="G132" t="n">
-        <v>5.811499999999997</v>
+        <v>5.80683333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3817,21 +4215,24 @@
         <v>5.85</v>
       </c>
       <c r="C133" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="D133" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="E133" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="F133" t="n">
-        <v>76557.2885</v>
+        <v>21299</v>
       </c>
       <c r="G133" t="n">
-        <v>5.816666666666664</v>
+        <v>5.811499999999997</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,7 +4241,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="C134" t="n">
         <v>5.89</v>
@@ -3849,15 +4250,18 @@
         <v>5.89</v>
       </c>
       <c r="E134" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="F134" t="n">
-        <v>5192.0203</v>
+        <v>76557.2885</v>
       </c>
       <c r="G134" t="n">
-        <v>5.821833333333331</v>
+        <v>5.816666666666664</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="C135" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="D135" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="E135" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="F135" t="n">
-        <v>34559.1091</v>
+        <v>5192.0203</v>
       </c>
       <c r="G135" t="n">
-        <v>5.826166666666664</v>
+        <v>5.821833333333331</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,12 +4311,15 @@
         <v>5.86</v>
       </c>
       <c r="F136" t="n">
-        <v>6782.3136</v>
+        <v>34559.1091</v>
       </c>
       <c r="G136" t="n">
-        <v>5.830499999999997</v>
+        <v>5.826166666666664</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C137" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="D137" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="E137" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F137" t="n">
-        <v>221.6524</v>
+        <v>6782.3136</v>
       </c>
       <c r="G137" t="n">
-        <v>5.834999999999996</v>
+        <v>5.830499999999997</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="C138" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="D138" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="E138" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="F138" t="n">
-        <v>133367.5446</v>
+        <v>221.6524</v>
       </c>
       <c r="G138" t="n">
-        <v>5.83933333333333</v>
+        <v>5.834999999999996</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E139" t="n">
         <v>5.85</v>
       </c>
-      <c r="C139" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="D139" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="E139" t="n">
-        <v>5.83</v>
-      </c>
       <c r="F139" t="n">
-        <v>111437.7241</v>
+        <v>133367.5446</v>
       </c>
       <c r="G139" t="n">
-        <v>5.842499999999997</v>
+        <v>5.83933333333333</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="C140" t="n">
         <v>5.83</v>
       </c>
       <c r="D140" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="E140" t="n">
         <v>5.83</v>
       </c>
       <c r="F140" t="n">
-        <v>47048.71355060034</v>
+        <v>111437.7241</v>
       </c>
       <c r="G140" t="n">
-        <v>5.844333333333329</v>
+        <v>5.842499999999997</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>5.83</v>
       </c>
       <c r="F141" t="n">
-        <v>3021.2692</v>
+        <v>47048.71355060034</v>
       </c>
       <c r="G141" t="n">
-        <v>5.843999999999995</v>
+        <v>5.844333333333329</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="C142" t="n">
-        <v>5.77</v>
+        <v>5.83</v>
       </c>
       <c r="D142" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="E142" t="n">
-        <v>5.77</v>
+        <v>5.83</v>
       </c>
       <c r="F142" t="n">
-        <v>93429.70419999999</v>
+        <v>3021.2692</v>
       </c>
       <c r="G142" t="n">
-        <v>5.843833333333328</v>
+        <v>5.843999999999995</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="C143" t="n">
-        <v>5.73</v>
+        <v>5.77</v>
       </c>
       <c r="D143" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="E143" t="n">
-        <v>5.73</v>
+        <v>5.77</v>
       </c>
       <c r="F143" t="n">
-        <v>7268.7042</v>
+        <v>93429.70419999999</v>
       </c>
       <c r="G143" t="n">
-        <v>5.843333333333329</v>
+        <v>5.843833333333328</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="C144" t="n">
-        <v>5.83</v>
+        <v>5.73</v>
       </c>
       <c r="D144" t="n">
-        <v>5.83</v>
+        <v>5.74</v>
       </c>
       <c r="E144" t="n">
-        <v>5.65</v>
+        <v>5.73</v>
       </c>
       <c r="F144" t="n">
-        <v>611283.9953</v>
+        <v>7268.7042</v>
       </c>
       <c r="G144" t="n">
-        <v>5.844333333333329</v>
+        <v>5.843333333333329</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.82</v>
+        <v>5.72</v>
       </c>
       <c r="C145" t="n">
-        <v>5.78</v>
+        <v>5.83</v>
       </c>
       <c r="D145" t="n">
         <v>5.83</v>
       </c>
       <c r="E145" t="n">
-        <v>5.78</v>
+        <v>5.65</v>
       </c>
       <c r="F145" t="n">
-        <v>570.6048</v>
+        <v>611283.9953</v>
       </c>
       <c r="G145" t="n">
-        <v>5.844499999999996</v>
+        <v>5.844333333333329</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
       <c r="C146" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="D146" t="n">
-        <v>5.77</v>
+        <v>5.83</v>
       </c>
       <c r="E146" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="F146" t="n">
-        <v>26.5164</v>
+        <v>570.6048</v>
       </c>
       <c r="G146" t="n">
-        <v>5.843666666666662</v>
+        <v>5.844499999999996</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.74</v>
+        <v>5.77</v>
       </c>
       <c r="C147" t="n">
-        <v>5.74</v>
+        <v>5.77</v>
       </c>
       <c r="D147" t="n">
-        <v>5.75</v>
+        <v>5.77</v>
       </c>
       <c r="E147" t="n">
-        <v>5.72</v>
+        <v>5.77</v>
       </c>
       <c r="F147" t="n">
-        <v>246893.3541</v>
+        <v>26.5164</v>
       </c>
       <c r="G147" t="n">
-        <v>5.841999999999996</v>
+        <v>5.843666666666662</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.75</v>
+        <v>5.74</v>
       </c>
       <c r="C148" t="n">
-        <v>5.75</v>
+        <v>5.74</v>
       </c>
       <c r="D148" t="n">
         <v>5.75</v>
       </c>
       <c r="E148" t="n">
-        <v>5.75</v>
+        <v>5.72</v>
       </c>
       <c r="F148" t="n">
-        <v>5000</v>
+        <v>246893.3541</v>
       </c>
       <c r="G148" t="n">
-        <v>5.840166666666662</v>
+        <v>5.841999999999996</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>5.75</v>
       </c>
       <c r="F149" t="n">
-        <v>10737.3913</v>
+        <v>5000</v>
       </c>
       <c r="G149" t="n">
-        <v>5.838166666666663</v>
+        <v>5.840166666666662</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="C150" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="D150" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="E150" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="F150" t="n">
-        <v>5000</v>
+        <v>10737.3913</v>
       </c>
       <c r="G150" t="n">
-        <v>5.835999999999996</v>
+        <v>5.838166666666663</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="C151" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="D151" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="E151" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="F151" t="n">
-        <v>11964.4068</v>
+        <v>5000</v>
       </c>
       <c r="G151" t="n">
-        <v>5.833333333333329</v>
+        <v>5.835999999999996</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="C152" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="D152" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="E152" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="F152" t="n">
-        <v>175.4442</v>
+        <v>11964.4068</v>
       </c>
       <c r="G152" t="n">
-        <v>5.829499999999995</v>
+        <v>5.833333333333329</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.71</v>
+        <v>5.74</v>
       </c>
       <c r="C153" t="n">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="D153" t="n">
-        <v>5.71</v>
+        <v>5.74</v>
       </c>
       <c r="E153" t="n">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="F153" t="n">
-        <v>196160.7648</v>
+        <v>175.4442</v>
       </c>
       <c r="G153" t="n">
-        <v>5.824833333333328</v>
+        <v>5.829499999999995</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.68</v>
+        <v>5.71</v>
       </c>
       <c r="C154" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="D154" t="n">
-        <v>5.68</v>
+        <v>5.71</v>
       </c>
       <c r="E154" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="F154" t="n">
-        <v>271022.1375</v>
+        <v>196160.7648</v>
       </c>
       <c r="G154" t="n">
-        <v>5.819833333333327</v>
+        <v>5.824833333333328</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="C155" t="n">
         <v>5.65</v>
       </c>
       <c r="D155" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E155" t="n">
         <v>5.65</v>
       </c>
-      <c r="E155" t="n">
-        <v>5.59</v>
-      </c>
       <c r="F155" t="n">
-        <v>20720.3023</v>
+        <v>271022.1375</v>
       </c>
       <c r="G155" t="n">
-        <v>5.814499999999994</v>
+        <v>5.819833333333327</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4415,21 +4882,24 @@
         <v>5.63</v>
       </c>
       <c r="C156" t="n">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="D156" t="n">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="E156" t="n">
-        <v>5.63</v>
+        <v>5.59</v>
       </c>
       <c r="F156" t="n">
-        <v>38089.9345</v>
+        <v>20720.3023</v>
       </c>
       <c r="G156" t="n">
-        <v>5.811333333333327</v>
+        <v>5.814499999999994</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C157" t="n">
         <v>5.71</v>
-      </c>
-      <c r="C157" t="n">
-        <v>5.7</v>
       </c>
       <c r="D157" t="n">
         <v>5.71</v>
       </c>
       <c r="E157" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="F157" t="n">
-        <v>66158.9999</v>
+        <v>38089.9345</v>
       </c>
       <c r="G157" t="n">
-        <v>5.80716666666666</v>
+        <v>5.811333333333327</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="C158" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="D158" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="E158" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="F158" t="n">
-        <v>243221.9626</v>
+        <v>66158.9999</v>
       </c>
       <c r="G158" t="n">
-        <v>5.803333333333327</v>
+        <v>5.80716666666666</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.69</v>
+        <v>5.73</v>
       </c>
       <c r="C159" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="D159" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="E159" t="n">
-        <v>5.69</v>
+        <v>5.63</v>
       </c>
       <c r="F159" t="n">
-        <v>5000</v>
+        <v>243221.9626</v>
       </c>
       <c r="G159" t="n">
-        <v>5.799499999999994</v>
+        <v>5.803333333333327</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="C160" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="D160" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="E160" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="F160" t="n">
         <v>5000</v>
       </c>
       <c r="G160" t="n">
-        <v>5.795333333333327</v>
+        <v>5.799499999999994</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="C161" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="D161" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="E161" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="F161" t="n">
         <v>5000</v>
       </c>
       <c r="G161" t="n">
-        <v>5.790666666666661</v>
+        <v>5.795333333333327</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="C162" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="D162" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="E162" t="n">
-        <v>5.6</v>
+        <v>5.67</v>
       </c>
       <c r="F162" t="n">
-        <v>14448.0429</v>
+        <v>5000</v>
       </c>
       <c r="G162" t="n">
-        <v>5.788166666666661</v>
+        <v>5.790666666666661</v>
       </c>
       <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4597,21 +5085,24 @@
         <v>5.65</v>
       </c>
       <c r="C163" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="D163" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="E163" t="n">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="F163" t="n">
-        <v>15166.0817</v>
+        <v>14448.0429</v>
       </c>
       <c r="G163" t="n">
-        <v>5.786333333333328</v>
+        <v>5.788166666666661</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4623,21 +5114,24 @@
         <v>5.65</v>
       </c>
       <c r="C164" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="D164" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="E164" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="F164" t="n">
-        <v>5000</v>
+        <v>15166.0817</v>
       </c>
       <c r="G164" t="n">
-        <v>5.782999999999993</v>
+        <v>5.786333333333328</v>
       </c>
       <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>5.65</v>
       </c>
       <c r="F165" t="n">
-        <v>23519.6582</v>
+        <v>5000</v>
       </c>
       <c r="G165" t="n">
-        <v>5.779833333333327</v>
+        <v>5.782999999999993</v>
       </c>
       <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="C166" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="D166" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="E166" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="F166" t="n">
-        <v>268.4533</v>
+        <v>23519.6582</v>
       </c>
       <c r="G166" t="n">
-        <v>5.77716666666666</v>
+        <v>5.779833333333327</v>
       </c>
       <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>5.69</v>
       </c>
       <c r="F167" t="n">
-        <v>124.0263</v>
+        <v>268.4533</v>
       </c>
       <c r="G167" t="n">
-        <v>5.77366666666666</v>
+        <v>5.77716666666666</v>
       </c>
       <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,12 +5239,15 @@
         <v>5.69</v>
       </c>
       <c r="F168" t="n">
-        <v>118.0404</v>
+        <v>124.0263</v>
       </c>
       <c r="G168" t="n">
-        <v>5.772333333333327</v>
+        <v>5.77366666666666</v>
       </c>
       <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="C169" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="D169" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="E169" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="F169" t="n">
-        <v>17398</v>
+        <v>118.0404</v>
       </c>
       <c r="G169" t="n">
-        <v>5.771499999999993</v>
+        <v>5.772333333333327</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="C170" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="D170" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="E170" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="F170" t="n">
-        <v>5000</v>
+        <v>17398</v>
       </c>
       <c r="G170" t="n">
-        <v>5.77066666666666</v>
+        <v>5.771499999999993</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4805,21 +5317,24 @@
         <v>5.64</v>
       </c>
       <c r="C171" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D171" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E171" t="n">
         <v>5.64</v>
       </c>
       <c r="F171" t="n">
-        <v>5112.938</v>
+        <v>5000</v>
       </c>
       <c r="G171" t="n">
-        <v>5.769499999999993</v>
+        <v>5.77066666666666</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,7 +5343,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="C172" t="n">
         <v>5.65</v>
@@ -4837,15 +5352,18 @@
         <v>5.65</v>
       </c>
       <c r="E172" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="F172" t="n">
-        <v>83651.0448</v>
+        <v>5112.938</v>
       </c>
       <c r="G172" t="n">
-        <v>5.767833333333326</v>
+        <v>5.769499999999993</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C173" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="D173" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="E173" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="F173" t="n">
-        <v>25730.6049</v>
+        <v>83651.0448</v>
       </c>
       <c r="G173" t="n">
-        <v>5.765166666666659</v>
+        <v>5.767833333333326</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,12 +5413,15 @@
         <v>5.62</v>
       </c>
       <c r="F174" t="n">
-        <v>5000</v>
+        <v>25730.6049</v>
       </c>
       <c r="G174" t="n">
-        <v>5.762499999999993</v>
+        <v>5.765166666666659</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,7 +5430,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="C175" t="n">
         <v>5.62</v>
@@ -4915,15 +5439,18 @@
         <v>5.62</v>
       </c>
       <c r="E175" t="n">
-        <v>5.57</v>
+        <v>5.62</v>
       </c>
       <c r="F175" t="n">
-        <v>178136.4966</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="n">
-        <v>5.759499999999993</v>
+        <v>5.762499999999993</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E176" t="n">
         <v>5.57</v>
       </c>
-      <c r="C176" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5.55</v>
-      </c>
       <c r="F176" t="n">
-        <v>46931.0918</v>
+        <v>178136.4966</v>
       </c>
       <c r="G176" t="n">
-        <v>5.755833333333327</v>
+        <v>5.759499999999993</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.62</v>
+        <v>5.57</v>
       </c>
       <c r="C177" t="n">
-        <v>5.62</v>
+        <v>5.55</v>
       </c>
       <c r="D177" t="n">
-        <v>5.62</v>
+        <v>5.57</v>
       </c>
       <c r="E177" t="n">
-        <v>5.62</v>
+        <v>5.55</v>
       </c>
       <c r="F177" t="n">
-        <v>10</v>
+        <v>46931.0918</v>
       </c>
       <c r="G177" t="n">
-        <v>5.753499999999994</v>
+        <v>5.755833333333327</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,7 +5517,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="C178" t="n">
         <v>5.62</v>
@@ -4993,15 +5526,18 @@
         <v>5.62</v>
       </c>
       <c r="E178" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="F178" t="n">
-        <v>192289.771</v>
+        <v>10</v>
       </c>
       <c r="G178" t="n">
-        <v>5.750499999999994</v>
+        <v>5.753499999999994</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="C179" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="D179" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="E179" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="F179" t="n">
-        <v>15889.4743</v>
+        <v>192289.771</v>
       </c>
       <c r="G179" t="n">
-        <v>5.747833333333327</v>
+        <v>5.750499999999994</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5045,15 +5584,18 @@
         <v>5.64</v>
       </c>
       <c r="E180" t="n">
-        <v>5.59</v>
+        <v>5.64</v>
       </c>
       <c r="F180" t="n">
-        <v>170301.3674</v>
+        <v>15889.4743</v>
       </c>
       <c r="G180" t="n">
-        <v>5.74516666666666</v>
+        <v>5.747833333333327</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C181" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D181" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E181" t="n">
-        <v>5.65</v>
+        <v>5.59</v>
       </c>
       <c r="F181" t="n">
-        <v>96.8318</v>
+        <v>170301.3674</v>
       </c>
       <c r="G181" t="n">
-        <v>5.742499999999993</v>
+        <v>5.74516666666666</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5100,12 +5645,15 @@
         <v>5.65</v>
       </c>
       <c r="F182" t="n">
-        <v>20633.773</v>
+        <v>96.8318</v>
       </c>
       <c r="G182" t="n">
-        <v>5.739333333333326</v>
+        <v>5.742499999999993</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="C183" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="D183" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="E183" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="F183" t="n">
-        <v>91.3356</v>
+        <v>20633.773</v>
       </c>
       <c r="G183" t="n">
-        <v>5.736999999999993</v>
+        <v>5.739333333333326</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5152,12 +5703,15 @@
         <v>5.69</v>
       </c>
       <c r="F184" t="n">
-        <v>118104.5042</v>
+        <v>91.3356</v>
       </c>
       <c r="G184" t="n">
-        <v>5.734333333333326</v>
+        <v>5.736999999999993</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="C185" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="D185" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="E185" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="F185" t="n">
-        <v>86.6228</v>
+        <v>118104.5042</v>
       </c>
       <c r="G185" t="n">
-        <v>5.731999999999993</v>
+        <v>5.734333333333326</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C186" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D186" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E186" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F186" t="n">
-        <v>5354.982</v>
+        <v>86.6228</v>
       </c>
       <c r="G186" t="n">
-        <v>5.729499999999993</v>
+        <v>5.731999999999993</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,12 +5790,15 @@
         <v>5.69</v>
       </c>
       <c r="F187" t="n">
-        <v>38560.9314</v>
+        <v>5354.982</v>
       </c>
       <c r="G187" t="n">
-        <v>5.726333333333327</v>
+        <v>5.729499999999993</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5819,15 @@
         <v>5.69</v>
       </c>
       <c r="F188" t="n">
-        <v>34704.833</v>
+        <v>38560.9314</v>
       </c>
       <c r="G188" t="n">
-        <v>5.723333333333327</v>
+        <v>5.726333333333327</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.67</v>
+        <v>5.69</v>
       </c>
       <c r="C189" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="D189" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="E189" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="F189" t="n">
-        <v>251485.2527</v>
+        <v>34704.833</v>
       </c>
       <c r="G189" t="n">
-        <v>5.72016666666666</v>
+        <v>5.723333333333327</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.64</v>
+        <v>5.67</v>
       </c>
       <c r="C190" t="n">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="D190" t="n">
-        <v>5.64</v>
+        <v>5.68</v>
       </c>
       <c r="E190" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="F190" t="n">
-        <v>90325.63400000001</v>
+        <v>251485.2527</v>
       </c>
       <c r="G190" t="n">
-        <v>5.715833333333326</v>
+        <v>5.72016666666666</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="C191" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="D191" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="E191" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="F191" t="n">
-        <v>3670.9447</v>
+        <v>90325.63400000001</v>
       </c>
       <c r="G191" t="n">
-        <v>5.71116666666666</v>
+        <v>5.715833333333326</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>5.61</v>
       </c>
       <c r="F192" t="n">
-        <v>24675.5347</v>
+        <v>3670.9447</v>
       </c>
       <c r="G192" t="n">
-        <v>5.707166666666661</v>
+        <v>5.71116666666666</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>5.61</v>
       </c>
       <c r="F193" t="n">
-        <v>2118.6306</v>
+        <v>24675.5347</v>
       </c>
       <c r="G193" t="n">
-        <v>5.702499999999994</v>
+        <v>5.707166666666661</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="C194" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="D194" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="E194" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="F194" t="n">
-        <v>71.4387</v>
+        <v>2118.6306</v>
       </c>
       <c r="G194" t="n">
-        <v>5.698166666666661</v>
+        <v>5.702499999999994</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5438,12 +6022,15 @@
         <v>5.63</v>
       </c>
       <c r="F195" t="n">
-        <v>67.3897</v>
+        <v>71.4387</v>
       </c>
       <c r="G195" t="n">
-        <v>5.694333333333327</v>
+        <v>5.698166666666661</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="C196" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="D196" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="E196" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="F196" t="n">
-        <v>64.03879999999999</v>
+        <v>67.3897</v>
       </c>
       <c r="G196" t="n">
-        <v>5.69116666666666</v>
+        <v>5.694333333333327</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5490,12 +6080,15 @@
         <v>5.67</v>
       </c>
       <c r="F197" t="n">
-        <v>60.8377</v>
+        <v>64.03879999999999</v>
       </c>
       <c r="G197" t="n">
-        <v>5.687833333333328</v>
+        <v>5.69116666666666</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="C198" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="D198" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="E198" t="n">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="F198" t="n">
-        <v>203.221</v>
+        <v>60.8377</v>
       </c>
       <c r="G198" t="n">
-        <v>5.683833333333327</v>
+        <v>5.687833333333328</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="C199" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="D199" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="E199" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="F199" t="n">
-        <v>58.1028</v>
+        <v>203.221</v>
       </c>
       <c r="G199" t="n">
-        <v>5.680666666666661</v>
+        <v>5.683833333333327</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,7 +6155,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="C200" t="n">
         <v>5.64</v>
@@ -5565,15 +6164,18 @@
         <v>5.64</v>
       </c>
       <c r="E200" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="F200" t="n">
-        <v>167956.1822</v>
+        <v>58.1028</v>
       </c>
       <c r="G200" t="n">
-        <v>5.677499999999994</v>
+        <v>5.680666666666661</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="C201" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="D201" t="n">
         <v>5.64</v>
       </c>
       <c r="E201" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="F201" t="n">
-        <v>81730.60739999999</v>
+        <v>167956.1822</v>
       </c>
       <c r="G201" t="n">
-        <v>5.674166666666661</v>
+        <v>5.677499999999994</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="C202" t="n">
         <v>5.63</v>
       </c>
       <c r="D202" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E202" t="n">
         <v>5.63</v>
       </c>
       <c r="F202" t="n">
-        <v>72411.5076</v>
+        <v>81730.60739999999</v>
       </c>
       <c r="G202" t="n">
-        <v>5.671833333333328</v>
+        <v>5.674166666666661</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,10 +6242,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C203" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="D203" t="n">
         <v>5.65</v>
@@ -5646,12 +6254,15 @@
         <v>5.63</v>
       </c>
       <c r="F203" t="n">
-        <v>25853.441</v>
+        <v>72411.5076</v>
       </c>
       <c r="G203" t="n">
-        <v>5.670499999999993</v>
+        <v>5.671833333333328</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5669,15 +6280,18 @@
         <v>5.65</v>
       </c>
       <c r="E204" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="F204" t="n">
-        <v>66.0973</v>
+        <v>25853.441</v>
       </c>
       <c r="G204" t="n">
-        <v>5.667499999999993</v>
+        <v>5.670499999999993</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,12 +6312,15 @@
         <v>5.65</v>
       </c>
       <c r="F205" t="n">
-        <v>100</v>
+        <v>66.0973</v>
       </c>
       <c r="G205" t="n">
-        <v>5.665333333333327</v>
+        <v>5.667499999999993</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5724,12 +6341,15 @@
         <v>5.65</v>
       </c>
       <c r="F206" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G206" t="n">
-        <v>5.663333333333327</v>
+        <v>5.665333333333327</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="C207" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="D207" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="E207" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="F207" t="n">
-        <v>20227.559</v>
+        <v>5000</v>
       </c>
       <c r="G207" t="n">
-        <v>5.661499999999993</v>
+        <v>5.663333333333327</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5776,12 +6399,15 @@
         <v>5.63</v>
       </c>
       <c r="F208" t="n">
-        <v>58532</v>
+        <v>20227.559</v>
       </c>
       <c r="G208" t="n">
-        <v>5.659499999999993</v>
+        <v>5.661499999999993</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5793,21 +6419,24 @@
         <v>5.63</v>
       </c>
       <c r="C209" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D209" t="n">
         <v>5.63</v>
       </c>
       <c r="E209" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F209" t="n">
-        <v>253339.9285</v>
+        <v>58532</v>
       </c>
       <c r="G209" t="n">
-        <v>5.657333333333327</v>
+        <v>5.659499999999993</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C210" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="D210" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="E210" t="n">
         <v>5.62</v>
       </c>
       <c r="F210" t="n">
-        <v>66196.0707</v>
+        <v>253339.9285</v>
       </c>
       <c r="G210" t="n">
-        <v>5.655999999999993</v>
+        <v>5.657333333333327</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5845,21 +6477,24 @@
         <v>5.62</v>
       </c>
       <c r="C211" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="D211" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="E211" t="n">
         <v>5.62</v>
       </c>
       <c r="F211" t="n">
-        <v>41873.055</v>
+        <v>66196.0707</v>
       </c>
       <c r="G211" t="n">
-        <v>5.654666666666659</v>
+        <v>5.655999999999993</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="C212" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="D212" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="E212" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="F212" t="n">
-        <v>195106.5446</v>
+        <v>41873.055</v>
       </c>
       <c r="G212" t="n">
-        <v>5.652999999999992</v>
+        <v>5.654666666666659</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="C213" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="D213" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="E213" t="n">
-        <v>5.56</v>
+        <v>5.6</v>
       </c>
       <c r="F213" t="n">
-        <v>7320.8142</v>
+        <v>195106.5446</v>
       </c>
       <c r="G213" t="n">
-        <v>5.65066666666666</v>
+        <v>5.652999999999992</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="C214" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="D214" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="E214" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="F214" t="n">
-        <v>2270.1358</v>
+        <v>7320.8142</v>
       </c>
       <c r="G214" t="n">
-        <v>5.65016666666666</v>
+        <v>5.65066666666666</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5958,12 +6602,15 @@
         <v>5.62</v>
       </c>
       <c r="F215" t="n">
-        <v>88.8888</v>
+        <v>2270.1358</v>
       </c>
       <c r="G215" t="n">
-        <v>5.64966666666666</v>
+        <v>5.65016666666666</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,12 +6631,15 @@
         <v>5.62</v>
       </c>
       <c r="F216" t="n">
-        <v>78.1112</v>
+        <v>88.8888</v>
       </c>
       <c r="G216" t="n">
-        <v>5.64816666666666</v>
+        <v>5.64966666666666</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6010,12 +6660,15 @@
         <v>5.62</v>
       </c>
       <c r="F217" t="n">
-        <v>10058.5409</v>
+        <v>78.1112</v>
       </c>
       <c r="G217" t="n">
-        <v>5.646833333333328</v>
+        <v>5.64816666666666</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6036,12 +6689,15 @@
         <v>5.62</v>
       </c>
       <c r="F218" t="n">
-        <v>168.5498</v>
+        <v>10058.5409</v>
       </c>
       <c r="G218" t="n">
-        <v>5.64516666666666</v>
+        <v>5.646833333333328</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6062,12 +6718,15 @@
         <v>5.62</v>
       </c>
       <c r="F219" t="n">
-        <v>9572.909299999999</v>
+        <v>168.5498</v>
       </c>
       <c r="G219" t="n">
-        <v>5.643833333333328</v>
+        <v>5.64516666666666</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="C220" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="D220" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="E220" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="F220" t="n">
-        <v>10</v>
+        <v>9572.909299999999</v>
       </c>
       <c r="G220" t="n">
-        <v>5.64316666666666</v>
+        <v>5.643833333333328</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6114,12 +6776,15 @@
         <v>5.64</v>
       </c>
       <c r="F221" t="n">
-        <v>201.4184</v>
+        <v>10</v>
       </c>
       <c r="G221" t="n">
-        <v>5.64266666666666</v>
+        <v>5.64316666666666</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="C222" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="D222" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="E222" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="F222" t="n">
-        <v>553.2075</v>
+        <v>201.4184</v>
       </c>
       <c r="G222" t="n">
-        <v>5.641499999999994</v>
+        <v>5.64266666666666</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>5.61</v>
       </c>
       <c r="F223" t="n">
-        <v>43980.6534</v>
+        <v>553.2075</v>
       </c>
       <c r="G223" t="n">
-        <v>5.64016666666666</v>
+        <v>5.641499999999994</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6183,21 +6854,24 @@
         <v>5.61</v>
       </c>
       <c r="C224" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="D224" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="E224" t="n">
         <v>5.61</v>
       </c>
       <c r="F224" t="n">
-        <v>48657.0538</v>
+        <v>43980.6534</v>
       </c>
       <c r="G224" t="n">
-        <v>5.639999999999994</v>
+        <v>5.64016666666666</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6209,21 +6883,24 @@
         <v>5.61</v>
       </c>
       <c r="C225" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="D225" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="E225" t="n">
         <v>5.61</v>
       </c>
       <c r="F225" t="n">
-        <v>81315</v>
+        <v>48657.0538</v>
       </c>
       <c r="G225" t="n">
-        <v>5.639333333333328</v>
+        <v>5.639999999999994</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6235,21 +6912,24 @@
         <v>5.61</v>
       </c>
       <c r="C226" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="D226" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="E226" t="n">
         <v>5.61</v>
       </c>
       <c r="F226" t="n">
-        <v>28817.7389</v>
+        <v>81315</v>
       </c>
       <c r="G226" t="n">
-        <v>5.638499999999994</v>
+        <v>5.639333333333328</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6261,21 +6941,24 @@
         <v>5.61</v>
       </c>
       <c r="C227" t="n">
-        <v>5.55</v>
+        <v>5.64</v>
       </c>
       <c r="D227" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E227" t="n">
         <v>5.61</v>
       </c>
-      <c r="E227" t="n">
-        <v>5.55</v>
-      </c>
       <c r="F227" t="n">
-        <v>271141.793</v>
+        <v>28817.7389</v>
       </c>
       <c r="G227" t="n">
-        <v>5.636166666666662</v>
+        <v>5.638499999999994</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="C228" t="n">
-        <v>5.64</v>
+        <v>5.55</v>
       </c>
       <c r="D228" t="n">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="E228" t="n">
-        <v>5.64</v>
+        <v>5.55</v>
       </c>
       <c r="F228" t="n">
-        <v>12</v>
+        <v>271141.793</v>
       </c>
       <c r="G228" t="n">
-        <v>5.635333333333327</v>
+        <v>5.636166666666662</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6322,12 +7008,15 @@
         <v>5.64</v>
       </c>
       <c r="F229" t="n">
-        <v>9999</v>
+        <v>12</v>
       </c>
       <c r="G229" t="n">
-        <v>5.635166666666661</v>
+        <v>5.635333333333327</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="C230" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="D230" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="E230" t="n">
-        <v>5.56</v>
+        <v>5.64</v>
       </c>
       <c r="F230" t="n">
-        <v>43727.4161</v>
+        <v>9999</v>
       </c>
       <c r="G230" t="n">
-        <v>5.633833333333328</v>
+        <v>5.635166666666661</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6374,12 +7066,15 @@
         <v>5.56</v>
       </c>
       <c r="F231" t="n">
-        <v>139346.9141</v>
+        <v>43727.4161</v>
       </c>
       <c r="G231" t="n">
-        <v>5.632333333333329</v>
+        <v>5.633833333333328</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>5.63</v>
+        <v>5.56</v>
       </c>
       <c r="C232" t="n">
-        <v>5.63</v>
+        <v>5.56</v>
       </c>
       <c r="D232" t="n">
-        <v>5.63</v>
+        <v>5.56</v>
       </c>
       <c r="E232" t="n">
-        <v>5.63</v>
+        <v>5.56</v>
       </c>
       <c r="F232" t="n">
-        <v>194.6234</v>
+        <v>139346.9141</v>
       </c>
       <c r="G232" t="n">
-        <v>5.631999999999995</v>
+        <v>5.632333333333329</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C233" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D233" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E233" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F233" t="n">
-        <v>5000</v>
+        <v>194.6234</v>
       </c>
       <c r="G233" t="n">
         <v>5.631999999999995</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="C234" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="D234" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="E234" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F234" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G234" t="n">
-        <v>5.632166666666662</v>
+        <v>5.631999999999995</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="C235" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="D235" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="E235" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="F235" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G235" t="n">
-        <v>5.631999999999995</v>
+        <v>5.632166666666662</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>5.59</v>
+        <v>5.61</v>
       </c>
       <c r="C236" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="D236" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="E236" t="n">
-        <v>5.56</v>
+        <v>5.61</v>
       </c>
       <c r="F236" t="n">
-        <v>25282</v>
+        <v>5000</v>
       </c>
       <c r="G236" t="n">
-        <v>5.633333333333328</v>
+        <v>5.631999999999995</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="C237" t="n">
         <v>5.63</v>
       </c>
-      <c r="C237" t="n">
-        <v>5.62</v>
-      </c>
       <c r="D237" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="E237" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="F237" t="n">
-        <v>148804.1059</v>
+        <v>25282</v>
       </c>
       <c r="G237" t="n">
         <v>5.633333333333328</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="C238" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="D238" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E238" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="F238" t="n">
-        <v>11</v>
+        <v>148804.1059</v>
       </c>
       <c r="G238" t="n">
-        <v>5.633833333333328</v>
+        <v>5.633333333333328</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,7 +7286,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="C239" t="n">
         <v>5.65</v>
@@ -6579,15 +7295,18 @@
         <v>5.65</v>
       </c>
       <c r="E239" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="F239" t="n">
-        <v>15000</v>
+        <v>11</v>
       </c>
       <c r="G239" t="n">
-        <v>5.633999999999995</v>
+        <v>5.633833333333328</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="C240" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="D240" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="E240" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F240" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="G240" t="n">
-        <v>5.634333333333329</v>
+        <v>5.633999999999995</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,7 +7344,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="C241" t="n">
         <v>5.66</v>
@@ -6634,12 +7356,15 @@
         <v>5.63</v>
       </c>
       <c r="F241" t="n">
-        <v>5173.5159</v>
+        <v>55000</v>
       </c>
       <c r="G241" t="n">
-        <v>5.634499999999997</v>
+        <v>5.634333333333329</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C242" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="D242" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="E242" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F242" t="n">
-        <v>63300</v>
+        <v>5173.5159</v>
       </c>
       <c r="G242" t="n">
-        <v>5.633999999999997</v>
+        <v>5.634499999999997</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="C243" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="D243" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="E243" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F243" t="n">
-        <v>8073.5469</v>
+        <v>63300</v>
       </c>
       <c r="G243" t="n">
-        <v>5.632999999999996</v>
+        <v>5.633999999999997</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6703,21 +7434,24 @@
         <v>5.66</v>
       </c>
       <c r="C244" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="D244" t="n">
         <v>5.66</v>
       </c>
       <c r="E244" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F244" t="n">
-        <v>164.8409</v>
+        <v>8073.5469</v>
       </c>
       <c r="G244" t="n">
-        <v>5.632499999999997</v>
+        <v>5.632999999999996</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="C245" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="D245" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="E245" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="F245" t="n">
-        <v>5000</v>
+        <v>164.8409</v>
       </c>
       <c r="G245" t="n">
-        <v>5.63133333333333</v>
+        <v>5.632499999999997</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="C246" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="D246" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="E246" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F246" t="n">
-        <v>156.5989</v>
+        <v>5000</v>
       </c>
       <c r="G246" t="n">
-        <v>5.630833333333331</v>
+        <v>5.63133333333333</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="C247" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="D247" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="E247" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="F247" t="n">
-        <v>17082.0487</v>
+        <v>156.5989</v>
       </c>
       <c r="G247" t="n">
-        <v>5.629833333333331</v>
+        <v>5.630833333333331</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="C248" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="D248" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="E248" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F248" t="n">
-        <v>148.772</v>
+        <v>17082.0487</v>
       </c>
       <c r="G248" t="n">
-        <v>5.629333333333332</v>
+        <v>5.629833333333331</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6842,12 +7588,15 @@
         <v>5.66</v>
       </c>
       <c r="F249" t="n">
-        <v>141.3339</v>
+        <v>148.772</v>
       </c>
       <c r="G249" t="n">
-        <v>5.628999999999999</v>
+        <v>5.629333333333332</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="C250" t="n">
-        <v>5.61</v>
+        <v>5.66</v>
       </c>
       <c r="D250" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="E250" t="n">
-        <v>5.61</v>
+        <v>5.66</v>
       </c>
       <c r="F250" t="n">
-        <v>13062.5469</v>
+        <v>141.3339</v>
       </c>
       <c r="G250" t="n">
-        <v>5.628666666666665</v>
+        <v>5.628999999999999</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6885,21 +7637,24 @@
         <v>5.62</v>
       </c>
       <c r="C251" t="n">
-        <v>5.66</v>
+        <v>5.61</v>
       </c>
       <c r="D251" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="E251" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="F251" t="n">
-        <v>2511</v>
+        <v>13062.5469</v>
       </c>
       <c r="G251" t="n">
-        <v>5.629499999999998</v>
+        <v>5.628666666666665</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C252" t="n">
         <v>5.66</v>
       </c>
-      <c r="C252" t="n">
-        <v>5.68</v>
-      </c>
       <c r="D252" t="n">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="E252" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="F252" t="n">
-        <v>3100</v>
+        <v>2511</v>
       </c>
       <c r="G252" t="n">
-        <v>5.630666666666666</v>
+        <v>5.629499999999998</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,24 +7692,27 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C253" t="n">
         <v>5.68</v>
       </c>
-      <c r="C253" t="n">
-        <v>5.69</v>
-      </c>
       <c r="D253" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="E253" t="n">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="F253" t="n">
-        <v>30727.7917</v>
+        <v>3100</v>
       </c>
       <c r="G253" t="n">
-        <v>5.631999999999999</v>
+        <v>5.630666666666666</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,10 +7721,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C254" t="n">
         <v>5.69</v>
-      </c>
-      <c r="C254" t="n">
-        <v>5.68</v>
       </c>
       <c r="D254" t="n">
         <v>5.69</v>
@@ -6972,12 +7733,15 @@
         <v>5.68</v>
       </c>
       <c r="F254" t="n">
-        <v>157010.3735</v>
+        <v>30727.7917</v>
       </c>
       <c r="G254" t="n">
-        <v>5.632833333333332</v>
+        <v>5.631999999999999</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C255" t="n">
         <v>5.68</v>
       </c>
-      <c r="C255" t="n">
-        <v>5.63</v>
-      </c>
       <c r="D255" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E255" t="n">
         <v>5.68</v>
       </c>
-      <c r="E255" t="n">
-        <v>5.63</v>
-      </c>
       <c r="F255" t="n">
-        <v>43534.2341</v>
+        <v>157010.3735</v>
       </c>
       <c r="G255" t="n">
         <v>5.632833333333332</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,24 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>5.62</v>
+        <v>5.68</v>
       </c>
       <c r="C256" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D256" t="n">
-        <v>5.62</v>
+        <v>5.68</v>
       </c>
       <c r="E256" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F256" t="n">
-        <v>5000</v>
+        <v>43534.2341</v>
       </c>
       <c r="G256" t="n">
-        <v>5.631999999999999</v>
+        <v>5.632833333333332</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7041,21 +7811,24 @@
         <v>5.62</v>
       </c>
       <c r="C257" t="n">
-        <v>5.61</v>
+        <v>5.62</v>
       </c>
       <c r="D257" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="E257" t="n">
-        <v>5.61</v>
+        <v>5.62</v>
       </c>
       <c r="F257" t="n">
-        <v>50545.3109</v>
+        <v>5000</v>
       </c>
       <c r="G257" t="n">
-        <v>5.630999999999998</v>
+        <v>5.631999999999999</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7067,21 +7840,24 @@
         <v>5.62</v>
       </c>
       <c r="C258" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="D258" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E258" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="F258" t="n">
-        <v>128.4608</v>
+        <v>50545.3109</v>
       </c>
       <c r="G258" t="n">
         <v>5.630999999999998</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,7 +7866,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="C259" t="n">
         <v>5.62</v>
@@ -7099,15 +7875,18 @@
         <v>5.62</v>
       </c>
       <c r="E259" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="F259" t="n">
-        <v>21884.4087</v>
+        <v>128.4608</v>
       </c>
       <c r="G259" t="n">
-        <v>5.630666666666666</v>
+        <v>5.630999999999998</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,24 +7895,27 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="C260" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="D260" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="E260" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="F260" t="n">
-        <v>5042.2579</v>
+        <v>21884.4087</v>
       </c>
       <c r="G260" t="n">
-        <v>5.630499999999999</v>
+        <v>5.630666666666666</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,7 +7924,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="C261" t="n">
         <v>5.63</v>
@@ -7151,10 +7933,10 @@
         <v>5.63</v>
       </c>
       <c r="E261" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F261" t="n">
-        <v>54838</v>
+        <v>5042.2579</v>
       </c>
       <c r="G261" t="n">
         <v>5.630499999999999</v>
@@ -7162,524 +7944,7 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C262" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D262" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E262" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F262" t="n">
-        <v>252211.9843</v>
-      </c>
-      <c r="G262" t="n">
-        <v>5.631333333333332</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C263" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D263" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E263" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F263" t="n">
-        <v>561048.9436</v>
-      </c>
-      <c r="G263" t="n">
-        <v>5.631833333333333</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C264" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D264" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E264" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F264" t="n">
-        <v>108.97</v>
-      </c>
-      <c r="G264" t="n">
-        <v>5.632333333333333</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C265" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D265" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E265" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F265" t="n">
-        <v>13.9084</v>
-      </c>
-      <c r="G265" t="n">
-        <v>5.632833333333334</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C266" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D266" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E266" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F266" t="n">
-        <v>10816.9313</v>
-      </c>
-      <c r="G266" t="n">
-        <v>5.633333333333335</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C267" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="D267" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E267" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="F267" t="n">
-        <v>11953.7469</v>
-      </c>
-      <c r="G267" t="n">
-        <v>5.633833333333334</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C268" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D268" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E268" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F268" t="n">
-        <v>11</v>
-      </c>
-      <c r="G268" t="n">
-        <v>5.634666666666669</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C269" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D269" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E269" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1857.6719</v>
-      </c>
-      <c r="G269" t="n">
-        <v>5.635500000000002</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="C270" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D270" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E270" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F270" t="n">
-        <v>813261.9279</v>
-      </c>
-      <c r="G270" t="n">
-        <v>5.635833333333336</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C271" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D271" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E271" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F271" t="n">
-        <v>100</v>
-      </c>
-      <c r="G271" t="n">
-        <v>5.636666666666669</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C272" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="D272" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="E272" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F272" t="n">
-        <v>49472</v>
-      </c>
-      <c r="G272" t="n">
-        <v>5.636500000000003</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C273" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="D273" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="E273" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F273" t="n">
-        <v>99180.1376</v>
-      </c>
-      <c r="G273" t="n">
-        <v>5.63766666666667</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C274" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="D274" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E274" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F274" t="n">
-        <v>81488.5172</v>
-      </c>
-      <c r="G274" t="n">
-        <v>5.637833333333336</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C275" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D275" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E275" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F275" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G275" t="n">
-        <v>5.638666666666669</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C276" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D276" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E276" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F276" t="n">
-        <v>55759.9022</v>
-      </c>
-      <c r="G276" t="n">
-        <v>5.639666666666669</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C277" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D277" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E277" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F277" t="n">
-        <v>57170</v>
-      </c>
-      <c r="G277" t="n">
-        <v>5.64066666666667</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C278" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D278" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E278" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F278" t="n">
-        <v>82757.7644</v>
-      </c>
-      <c r="G278" t="n">
-        <v>5.641500000000003</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C279" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D279" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E279" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F279" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G279" t="n">
-        <v>5.642333333333337</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="C280" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="D280" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="E280" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="F280" t="n">
-        <v>100</v>
-      </c>
-      <c r="G280" t="n">
-        <v>5.64266666666667</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C281" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="D281" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="E281" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F281" t="n">
-        <v>5985</v>
-      </c>
-      <c r="G281" t="n">
-        <v>5.642500000000004</v>
-      </c>
-      <c r="H281" t="n">
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
